--- a/Color Excel.xlsx
+++ b/Color Excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t xml:space="preserve">Stage</t>
   </si>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Seagrass green</t>
   </si>
   <si>
-    <t xml:space="preserve">Your Name</t>
+    <t xml:space="preserve">Kimi no Na wa.</t>
   </si>
   <si>
     <t xml:space="preserve">Invisible meat</t>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hide and Seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Are What You Eat</t>
   </si>
   <si>
     <t xml:space="preserve">Black and black</t>
@@ -151,6 +157,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,11 +245,11 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.22"/>
@@ -440,6 +447,12 @@
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -456,13 +469,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
